--- a/Metrics/newNNFullHyperTrain.xlsx
+++ b/Metrics/newNNFullHyperTrain.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -496,22 +496,22 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.095</v>
+        <v>-0.058</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.238</v>
+        <v>-0.196</v>
       </c>
       <c r="G2" t="n">
-        <v>0.71</v>
+        <v>0.6860000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>0.843</v>
+        <v>0.828</v>
       </c>
       <c r="I2" t="n">
-        <v>0.629</v>
+        <v>0.62</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.027</v>
+        <v>-0.013</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +530,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.152</v>
+        <v>-0.074</v>
       </c>
       <c r="F3" t="n">
-        <v>1.741</v>
+        <v>1.69</v>
       </c>
       <c r="G3" t="n">
-        <v>7.953</v>
+        <v>7.41</v>
       </c>
       <c r="H3" t="n">
-        <v>2.82</v>
+        <v>2.722</v>
       </c>
       <c r="I3" t="n">
-        <v>2.265</v>
+        <v>2.26</v>
       </c>
       <c r="J3" t="n">
-        <v>0.103</v>
+        <v>0.042</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +564,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.06</v>
+        <v>-0.006</v>
       </c>
       <c r="F4" t="n">
-        <v>1.681</v>
+        <v>1.647</v>
       </c>
       <c r="G4" t="n">
-        <v>0.673</v>
+        <v>0.639</v>
       </c>
       <c r="H4" t="n">
-        <v>0.82</v>
+        <v>0.799</v>
       </c>
       <c r="I4" t="n">
-        <v>0.669</v>
+        <v>0.57</v>
       </c>
       <c r="J4" t="n">
-        <v>0.217</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +598,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.421</v>
+        <v>-0.027</v>
       </c>
       <c r="F5" t="n">
-        <v>1.914</v>
+        <v>1.66</v>
       </c>
       <c r="G5" t="n">
-        <v>0.248</v>
+        <v>0.179</v>
       </c>
       <c r="H5" t="n">
-        <v>0.498</v>
+        <v>0.423</v>
       </c>
       <c r="I5" t="n">
-        <v>0.347</v>
+        <v>0.32</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.438</v>
+        <v>-0.117</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +632,22 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.215</v>
+        <v>-0.479</v>
       </c>
       <c r="F6" t="n">
-        <v>1.781</v>
+        <v>1.951</v>
       </c>
       <c r="G6" t="n">
-        <v>0.955</v>
+        <v>1.162</v>
       </c>
       <c r="H6" t="n">
-        <v>0.977</v>
+        <v>1.078</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.842</v>
       </c>
       <c r="J6" t="n">
-        <v>0.452</v>
+        <v>-0.282</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +666,22 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.051</v>
+        <v>0.005</v>
       </c>
       <c r="F7" t="n">
-        <v>1.676</v>
+        <v>1.64</v>
       </c>
       <c r="G7" t="n">
-        <v>0.9320000000000001</v>
+        <v>0.882</v>
       </c>
       <c r="H7" t="n">
-        <v>0.965</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="I7" t="n">
-        <v>0.871</v>
+        <v>0.84</v>
       </c>
       <c r="J7" t="n">
-        <v>0.096</v>
+        <v>0.422</v>
       </c>
     </row>
     <row r="8">
@@ -700,22 +700,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.26</v>
+        <v>-0.003</v>
       </c>
       <c r="F8" t="n">
-        <v>1.81</v>
+        <v>1.645</v>
       </c>
       <c r="G8" t="n">
-        <v>1.578</v>
+        <v>1.257</v>
       </c>
       <c r="H8" t="n">
-        <v>1.256</v>
+        <v>1.121</v>
       </c>
       <c r="I8" t="n">
-        <v>1.044</v>
+        <v>0.992</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.101</v>
+        <v>0.036</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +734,22 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.007</v>
+        <v>-0.119</v>
       </c>
       <c r="F9" t="n">
-        <v>1.638</v>
+        <v>1.719</v>
       </c>
       <c r="G9" t="n">
-        <v>0.34</v>
+        <v>0.383</v>
       </c>
       <c r="H9" t="n">
-        <v>0.583</v>
+        <v>0.619</v>
       </c>
       <c r="I9" t="n">
-        <v>0.519</v>
+        <v>0.485</v>
       </c>
       <c r="J9" t="n">
-        <v>0.548</v>
+        <v>-0.455</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +768,22 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.349</v>
+        <v>-0.189</v>
       </c>
       <c r="F10" t="n">
-        <v>1.867</v>
+        <v>1.764</v>
       </c>
       <c r="G10" t="n">
-        <v>1.573</v>
+        <v>1.387</v>
       </c>
       <c r="H10" t="n">
-        <v>1.254</v>
+        <v>1.178</v>
       </c>
       <c r="I10" t="n">
-        <v>1.023</v>
+        <v>0.965</v>
       </c>
       <c r="J10" t="n">
-        <v>0.083</v>
+        <v>0.304</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.017</v>
+        <v>-0.002</v>
       </c>
       <c r="F11" t="n">
-        <v>1.632</v>
+        <v>1.644</v>
       </c>
       <c r="G11" t="n">
-        <v>0.88</v>
+        <v>0.898</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9379999999999999</v>
+        <v>0.948</v>
       </c>
       <c r="I11" t="n">
-        <v>0.845</v>
+        <v>0.839</v>
       </c>
       <c r="J11" t="n">
-        <v>0.174</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +836,22 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.096</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="F12" t="n">
-        <v>1.705</v>
+        <v>1.637</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6909999999999999</v>
+        <v>0.625</v>
       </c>
       <c r="H12" t="n">
-        <v>0.831</v>
+        <v>0.791</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.678</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.08</v>
+        <v>0.442</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.002</v>
+        <v>0.008</v>
       </c>
       <c r="F13" t="n">
-        <v>1.644</v>
+        <v>1.638</v>
       </c>
       <c r="G13" t="n">
-        <v>0.303</v>
+        <v>0.3</v>
       </c>
       <c r="H13" t="n">
-        <v>0.55</v>
+        <v>0.548</v>
       </c>
       <c r="I13" t="n">
-        <v>0.437</v>
+        <v>0.432</v>
       </c>
       <c r="J13" t="n">
-        <v>0.082</v>
+        <v>0.345</v>
       </c>
     </row>
     <row r="14">
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.21</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>1.778</v>
+        <v>1.688</v>
       </c>
       <c r="G14" t="n">
-        <v>0.59</v>
+        <v>0.522</v>
       </c>
       <c r="H14" t="n">
-        <v>0.768</v>
+        <v>0.722</v>
       </c>
       <c r="I14" t="n">
         <v>0.672</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.208</v>
+        <v>0.274</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +938,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.052</v>
+        <v>-0.075</v>
       </c>
       <c r="F15" t="n">
-        <v>1.676</v>
+        <v>1.691</v>
       </c>
       <c r="G15" t="n">
-        <v>0.526</v>
+        <v>0.537</v>
       </c>
       <c r="H15" t="n">
-        <v>0.725</v>
+        <v>0.733</v>
       </c>
       <c r="I15" t="n">
-        <v>0.539</v>
+        <v>0.533</v>
       </c>
       <c r="J15" t="n">
-        <v>0.055</v>
+        <v>-0.002</v>
       </c>
     </row>
     <row r="16">
@@ -972,22 +972,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.098</v>
+        <v>-0.372</v>
       </c>
       <c r="F16" t="n">
-        <v>1.231</v>
+        <v>1.289</v>
       </c>
       <c r="G16" t="n">
-        <v>0.416</v>
+        <v>0.52</v>
       </c>
       <c r="H16" t="n">
-        <v>0.645</v>
+        <v>0.721</v>
       </c>
       <c r="I16" t="n">
-        <v>0.551</v>
+        <v>0.548</v>
       </c>
       <c r="J16" t="n">
-        <v>0.487</v>
+        <v>-0.547</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +1006,22 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.026</v>
+        <v>-0.03</v>
       </c>
       <c r="F17" t="n">
-        <v>1.285</v>
+        <v>1.286</v>
       </c>
       <c r="G17" t="n">
-        <v>1.436</v>
+        <v>1.442</v>
       </c>
       <c r="H17" t="n">
-        <v>1.198</v>
+        <v>1.201</v>
       </c>
       <c r="I17" t="n">
         <v>1.01</v>
       </c>
       <c r="J17" t="n">
-        <v>0.113</v>
+        <v>0.548</v>
       </c>
     </row>
     <row r="18">
@@ -1040,19 +1040,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.331</v>
+        <v>-1.85</v>
       </c>
       <c r="F18" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="G18" t="n">
-        <v>0.101</v>
+        <v>0.217</v>
       </c>
       <c r="H18" t="n">
-        <v>0.318</v>
+        <v>0.466</v>
       </c>
       <c r="I18" t="n">
-        <v>0.424</v>
+        <v>0.4</v>
       </c>
       <c r="J18" t="n">
         <v>1</v>
@@ -1074,19 +1074,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>-4.605</v>
+        <v>-7.675</v>
       </c>
       <c r="F19" t="n">
-        <v>1.255</v>
+        <v>1.394</v>
       </c>
       <c r="G19" t="n">
-        <v>0.112</v>
+        <v>0.174</v>
       </c>
       <c r="H19" t="n">
-        <v>0.335</v>
+        <v>0.417</v>
       </c>
       <c r="I19" t="n">
-        <v>0.298</v>
+        <v>0.391</v>
       </c>
       <c r="J19" t="n">
         <v>-1</v>
@@ -1108,22 +1108,22 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.232</v>
+        <v>-9.409000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>1.101</v>
+        <v>1.473</v>
       </c>
       <c r="G20" t="n">
-        <v>0.113</v>
+        <v>0.526</v>
       </c>
       <c r="H20" t="n">
-        <v>0.336</v>
+        <v>0.725</v>
       </c>
       <c r="I20" t="n">
-        <v>0.225</v>
+        <v>0.696</v>
       </c>
       <c r="J20" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1142,22 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.198</v>
+        <v>-8.539</v>
       </c>
       <c r="F21" t="n">
-        <v>1.036</v>
+        <v>1.434</v>
       </c>
       <c r="G21" t="n">
-        <v>0.025</v>
+        <v>0.298</v>
       </c>
       <c r="H21" t="n">
-        <v>0.158</v>
+        <v>0.546</v>
       </c>
       <c r="I21" t="n">
-        <v>0.177</v>
+        <v>0.514</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-12.058</v>
+        <v>-0.912</v>
       </c>
       <c r="F22" t="n">
-        <v>1.594</v>
+        <v>1.087</v>
       </c>
       <c r="G22" t="n">
-        <v>0.353</v>
+        <v>0.052</v>
       </c>
       <c r="H22" t="n">
-        <v>0.594</v>
+        <v>0.228</v>
       </c>
       <c r="I22" t="n">
-        <v>0.417</v>
+        <v>0.175</v>
       </c>
       <c r="J22" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1210,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-13.092</v>
+        <v>-7.679</v>
       </c>
       <c r="F23" t="n">
-        <v>1.641</v>
+        <v>1.394</v>
       </c>
       <c r="G23" t="n">
-        <v>0.479</v>
+        <v>0.295</v>
       </c>
       <c r="H23" t="n">
-        <v>0.6919999999999999</v>
+        <v>0.543</v>
       </c>
       <c r="I23" t="n">
-        <v>0.489</v>
+        <v>0.509</v>
       </c>
       <c r="J23" t="n">
         <v>-1</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.111</v>
+        <v>-3.546</v>
       </c>
       <c r="F24" t="n">
-        <v>1.05</v>
+        <v>1.207</v>
       </c>
       <c r="G24" t="n">
-        <v>0.175</v>
+        <v>0.718</v>
       </c>
       <c r="H24" t="n">
-        <v>0.418</v>
+        <v>0.847</v>
       </c>
       <c r="I24" t="n">
-        <v>0.397</v>
+        <v>0.756</v>
       </c>
       <c r="J24" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1278,22 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.082</v>
+        <v>-0.051</v>
       </c>
       <c r="F25" t="n">
-        <v>1.042</v>
+        <v>1.048</v>
       </c>
       <c r="G25" t="n">
-        <v>0.602</v>
+        <v>0.6889999999999999</v>
       </c>
       <c r="H25" t="n">
-        <v>0.776</v>
+        <v>0.83</v>
       </c>
       <c r="I25" t="n">
         <v>0.8100000000000001</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26">
@@ -1312,22 +1312,22 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.536</v>
+        <v>-6.998</v>
       </c>
       <c r="F26" t="n">
-        <v>1.021</v>
+        <v>1.364</v>
       </c>
       <c r="G26" t="n">
-        <v>0.033</v>
+        <v>0.5679999999999999</v>
       </c>
       <c r="H26" t="n">
-        <v>0.182</v>
+        <v>0.754</v>
       </c>
       <c r="I26" t="n">
-        <v>0.312</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1346,22 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>-24.434</v>
+        <v>-0.226</v>
       </c>
       <c r="F27" t="n">
-        <v>2.156</v>
+        <v>1.056</v>
       </c>
       <c r="G27" t="n">
-        <v>0.276</v>
+        <v>0.013</v>
       </c>
       <c r="H27" t="n">
-        <v>0.525</v>
+        <v>0.114</v>
       </c>
       <c r="I27" t="n">
-        <v>0.491</v>
+        <v>0.148</v>
       </c>
       <c r="J27" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,16 +1380,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.096</v>
+        <v>-0.033</v>
       </c>
       <c r="F28" t="n">
-        <v>1.05</v>
+        <v>1.047</v>
       </c>
       <c r="G28" t="n">
-        <v>1.386</v>
+        <v>1.307</v>
       </c>
       <c r="H28" t="n">
-        <v>1.177</v>
+        <v>1.143</v>
       </c>
       <c r="I28" t="n">
         <v>1.125</v>
@@ -1414,22 +1414,22 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.793</v>
+        <v>-2.586</v>
       </c>
       <c r="F29" t="n">
-        <v>1.082</v>
+        <v>1.163</v>
       </c>
       <c r="G29" t="n">
-        <v>0.276</v>
+        <v>0.553</v>
       </c>
       <c r="H29" t="n">
-        <v>0.525</v>
+        <v>0.744</v>
       </c>
       <c r="I29" t="n">
-        <v>0.393</v>
+        <v>0.639</v>
       </c>
       <c r="J29" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1448,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>-973.191</v>
+        <v>-1461.147</v>
       </c>
       <c r="F30" t="n">
-        <v>45.281</v>
+        <v>67.461</v>
       </c>
       <c r="G30" t="n">
-        <v>1.14</v>
+        <v>1.711</v>
       </c>
       <c r="H30" t="n">
-        <v>1.068</v>
+        <v>1.308</v>
       </c>
       <c r="I30" t="n">
-        <v>1.068</v>
+        <v>1.308</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -1482,22 +1482,22 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.919</v>
+        <v>-0.036</v>
       </c>
       <c r="F31" t="n">
-        <v>1.133</v>
+        <v>1.047</v>
       </c>
       <c r="G31" t="n">
-        <v>0.222</v>
+        <v>0.079</v>
       </c>
       <c r="H31" t="n">
-        <v>0.471</v>
+        <v>0.281</v>
       </c>
       <c r="I31" t="n">
-        <v>0.309</v>
+        <v>0.276</v>
       </c>
       <c r="J31" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1516,28 +1516,28 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>-4.332</v>
+        <v>-24.494</v>
       </c>
       <c r="F32" t="n">
-        <v>1.242</v>
+        <v>2.159</v>
       </c>
       <c r="G32" t="n">
-        <v>0.474</v>
+        <v>2.267</v>
       </c>
       <c r="H32" t="n">
-        <v>0.6879999999999999</v>
+        <v>1.506</v>
       </c>
       <c r="I32" t="n">
-        <v>0.6840000000000001</v>
+        <v>1.475</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Pre2020NNavg</t>
+          <t>TotalNNAvg</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1550,28 +1550,28 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.1385</v>
+        <v>-11.44310609243697</v>
       </c>
       <c r="F33" t="n">
-        <v>1.593214285714285</v>
+        <v>1.933707983193277</v>
       </c>
       <c r="G33" t="n">
-        <v>1.282285714285714</v>
+        <v>0.9418518907563024</v>
       </c>
       <c r="H33" t="n">
-        <v>0.9877142857142858</v>
+        <v>0.8628266806722691</v>
       </c>
       <c r="I33" t="n">
-        <v>0.8114285714285714</v>
+        <v>0.7057090336134454</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0682857142857143</v>
+        <v>-0.07109663865546222</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>TransNNavg</t>
+          <t>Pre2020NNavg</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1584,28 +1584,28 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.098</v>
+        <v>-0.07714285714285714</v>
       </c>
       <c r="F34" t="n">
-        <v>1.231</v>
+        <v>1.558428571428571</v>
       </c>
       <c r="G34" t="n">
-        <v>0.416</v>
+        <v>1.204785714285714</v>
       </c>
       <c r="H34" t="n">
-        <v>0.645</v>
+        <v>0.9606428571428572</v>
       </c>
       <c r="I34" t="n">
-        <v>0.551</v>
+        <v>0.7891428571428571</v>
       </c>
       <c r="J34" t="n">
-        <v>0.487</v>
+        <v>0.1332857142857143</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Post2020NNavg</t>
+          <t>TransNNavg</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1618,28 +1618,28 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-64.71275</v>
+        <v>-0.372</v>
       </c>
       <c r="F35" t="n">
-        <v>4.0018125</v>
+        <v>1.289</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4501875</v>
+        <v>0.52</v>
       </c>
       <c r="H35" t="n">
-        <v>0.5913124999999999</v>
+        <v>0.721</v>
       </c>
       <c r="I35" t="n">
-        <v>0.5393125000000001</v>
+        <v>0.548</v>
       </c>
       <c r="J35" t="n">
-        <v>-0.1804375</v>
+        <v>-0.547</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>TotalNNAvg</t>
+          <t>Post2020NNavg</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1652,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>-7.723558823529411</v>
+        <v>-95.9506875</v>
       </c>
       <c r="F36" t="n">
-        <v>1.770045168067227</v>
+        <v>5.421875</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9296018907563027</v>
+        <v>0.6818124999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>0.840280462184874</v>
+        <v>0.7283125</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7028182773109244</v>
+        <v>0.6828124999999999</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1621754201680672</v>
+        <v>0.09675</v>
       </c>
     </row>
   </sheetData>
